--- a/doc/planning.xlsx
+++ b/doc/planning.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>1.创建实体类</t>
-  </si>
-  <si>
-    <t>2.创建映射模型，关联mysql</t>
-  </si>
-  <si>
-    <t>3.用户、会议室repo和service创建</t>
-  </si>
-  <si>
-    <t>4.会议室预定相关repo和service创建</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -46,18 +34,6 @@
     <t>4.java中的unit test是如何使用的</t>
   </si>
   <si>
-    <t>5.用户、会议室管理相关controller</t>
-  </si>
-  <si>
-    <t>6.会议室预订相关controller</t>
-  </si>
-  <si>
-    <t>7.docker镜像构建</t>
-  </si>
-  <si>
-    <t>8.测试</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
@@ -68,6 +44,48 @@
   </si>
   <si>
     <t>end date</t>
+  </si>
+  <si>
+    <t>会议室repo和service创建</t>
+  </si>
+  <si>
+    <t>会议室预定相关repo和service创建</t>
+  </si>
+  <si>
+    <t>用户controller创建</t>
+  </si>
+  <si>
+    <t>会议室管理相关controller</t>
+  </si>
+  <si>
+    <t>会议室预订相关controller</t>
+  </si>
+  <si>
+    <t>docker镜像构建</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>用户repo和service创建（权限管理）</t>
+  </si>
+  <si>
+    <t>swagger</t>
+  </si>
+  <si>
+    <t>创建用户相关实体类，映射</t>
+  </si>
+  <si>
+    <t>会议室实体类相关创建，映射，关联mysql</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>会议室</t>
+  </si>
+  <si>
+    <t>表结构设计</t>
   </si>
 </sst>
 </file>
@@ -103,8 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -412,151 +433,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="76.140625" customWidth="1"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A26"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/planning.xlsx
+++ b/doc/planning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -86,16 +86,66 @@
   </si>
   <si>
     <t>表结构设计</t>
+  </si>
+  <si>
+    <t>初始化spring security，并且完成配置</t>
+  </si>
+  <si>
+    <t>User相关业务（用户注册，信息修改等）</t>
+  </si>
+  <si>
+    <t>Role相关业务（角色添加修改等）</t>
+  </si>
+  <si>
+    <t>User与Role关联相关业务（用户的角色添加，变更等）</t>
+  </si>
+  <si>
+    <t>Permission相关业务（权限的添加修改等）</t>
+  </si>
+  <si>
+    <t>Role与Permission关联相关业务（角色的权限添加、变更）</t>
+  </si>
+  <si>
+    <t>Login相关业务（密码加密，登录验证，权限获取等）</t>
+  </si>
+  <si>
+    <t>Controller层的权限控制业务</t>
+  </si>
+  <si>
+    <t>Service层的权限控制业务</t>
+  </si>
+  <si>
+    <t>用户密码策略相关业务（密码的过期时间，错误密码重试）</t>
+  </si>
+  <si>
+    <t>用户轨迹策略相关业务（登录地点、IP记录，常用地异常记录）</t>
+  </si>
+  <si>
+    <t>角色权限等级分配（去除Admin权限，业务和管理员分离）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -129,9 +179,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -147,7 +199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -433,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,177 +518,247 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" t="s">
-        <v>18</v>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" t="s">
-        <v>10</v>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" t="s">
-        <v>11</v>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" t="s">
-        <v>13</v>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" t="s">
-        <v>14</v>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" t="s">
-        <v>18</v>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" t="s">
-        <v>15</v>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B19:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/planning.xlsx
+++ b/doc/planning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -122,6 +122,33 @@
   </si>
   <si>
     <t>角色权限等级分配（去除Admin权限，业务和管理员分离）</t>
+  </si>
+  <si>
+    <t>flutter</t>
+  </si>
+  <si>
+    <t>项目搭建，flutter架构使用调研</t>
+  </si>
+  <si>
+    <t>创建用户登录页面</t>
+  </si>
+  <si>
+    <t>创建会议室管理页面</t>
+  </si>
+  <si>
+    <t>创建用户管理页面</t>
+  </si>
+  <si>
+    <t>创建会议室预订页面</t>
+  </si>
+  <si>
+    <t>app整体设计优化</t>
+  </si>
+  <si>
+    <t>用户权限控制</t>
+  </si>
+  <si>
+    <t>前后端接口联调</t>
   </si>
 </sst>
 </file>
@@ -171,19 +198,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -199,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -485,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,128 +536,128 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
@@ -641,122 +665,185 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B40:B49"/>
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="A28:A38"/>
     <mergeCell ref="B2:B18"/>
     <mergeCell ref="B19:B27"/>
+    <mergeCell ref="B28:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/planning.xlsx
+++ b/doc/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Task</t>
   </si>
@@ -46,21 +46,9 @@
     <t>end date</t>
   </si>
   <si>
-    <t>会议室repo和service创建</t>
-  </si>
-  <si>
-    <t>会议室预定相关repo和service创建</t>
-  </si>
-  <si>
     <t>用户controller创建</t>
   </si>
   <si>
-    <t>会议室管理相关controller</t>
-  </si>
-  <si>
-    <t>会议室预订相关controller</t>
-  </si>
-  <si>
     <t>docker镜像构建</t>
   </si>
   <si>
@@ -149,6 +137,24 @@
   </si>
   <si>
     <t>前后端接口联调</t>
+  </si>
+  <si>
+    <t>会议室预定-预定逻辑、存库</t>
+  </si>
+  <si>
+    <t>会议室预定-撤销我的预定(未过期)</t>
+  </si>
+  <si>
+    <t>会议室-获取可订阅会议室（会议室列表）</t>
+  </si>
+  <si>
+    <t>会议室-获取有效时间列表（会议固定时间段 按半小时、标记已订阅时间段、标记预定人）</t>
+  </si>
+  <si>
+    <t>会议室预定-获取预定列表</t>
+  </si>
+  <si>
+    <t>初始化会议室到数据库</t>
   </si>
 </sst>
 </file>
@@ -511,17 +517,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="76.140625" customWidth="1"/>
+    <col min="1" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="76.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>6</v>
       </c>
@@ -535,305 +541,311 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
       <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="3"/>
+      <c r="C45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
     </row>
   </sheetData>

--- a/doc/planning.xlsx
+++ b/doc/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>初始化会议室到数据库</t>
+  </si>
+  <si>
+    <t>test &amp;&amp; deployment</t>
+  </si>
+  <si>
+    <t>shiyin</t>
+  </si>
+  <si>
+    <t>yongming</t>
+  </si>
+  <si>
+    <t>5.swagger测试接口权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yiyu </t>
   </si>
 </sst>
 </file>
@@ -204,11 +219,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,347 +539,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="76.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="87.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6">
+        <v>44015</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="6">
+        <v>44015</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44015</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="6">
+        <v>44015</v>
+      </c>
+      <c r="F19" s="6">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
       <c r="C22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="6">
+        <v>44015</v>
+      </c>
+      <c r="F25" s="6">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="6">
+        <v>44015</v>
+      </c>
+      <c r="F27" s="6">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="6">
+        <v>44015</v>
+      </c>
+      <c r="F28" s="6">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="4"/>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="3"/>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
-      <c r="C43" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="3"/>
-      <c r="C44" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="3"/>
-      <c r="C45" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B42:B51"/>
     <mergeCell ref="B2:B18"/>
     <mergeCell ref="B19:B27"/>
-    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B39:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/planning.xlsx
+++ b/doc/planning.xlsx
@@ -169,7 +169,7 @@
     <t>5.swagger测试接口权限</t>
   </si>
   <si>
-    <t xml:space="preserve">yiyu </t>
+    <t>yiyu ，yunfei</t>
   </si>
 </sst>
 </file>
@@ -226,14 +226,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="87.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
   </cols>
@@ -570,10 +570,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -582,143 +582,143 @@
       <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>44015</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>44022</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>44015</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>44022</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>44015</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>44022</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -727,87 +727,87 @@
       <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>44015</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>44022</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
       <c r="C22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="C23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
       <c r="C24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>44015</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>44022</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>44015</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <v>44022</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
@@ -816,77 +816,77 @@
       <c r="D28" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>44015</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>44022</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
       <c r="C29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
       <c r="C30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
       <c r="C31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="5"/>
       <c r="C32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="5"/>
       <c r="C33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="5"/>
       <c r="C34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="5"/>
       <c r="C35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C39" t="s">
@@ -894,62 +894,62 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
       <c r="C40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
+      <c r="B44" s="5"/>
       <c r="C44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
+      <c r="B45" s="5"/>
       <c r="C45" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
+      <c r="B46" s="5"/>
       <c r="C46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
+      <c r="B47" s="5"/>
       <c r="C47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
+      <c r="B48" s="5"/>
       <c r="C48" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
+      <c r="B51" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
